--- a/Clean data sheets/Larval heat tolerance.xlsx
+++ b/Clean data sheets/Larval heat tolerance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harfy/Box Sync/Barott lab/Data/Ben G. Data and Other Files/Data/N. vectensis OA experiment (F21-Sp22)/Clean data sheets all weeks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harfy/Box Sync/Barott lab/Data/Ben G. Data and Other Files/Data/N. vectensis OA experiment (F21–Sp22)/Clean data sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF23BFAB-F9E3-8540-ACCF-1625744D21EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13510F7B-3D08-334E-96E5-DA90B636B079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="13740" xr2:uid="{CE4CDABF-9E46-004A-821F-62EAF719A5C5}"/>
   </bookViews>
@@ -44,13 +44,13 @@
     <t>Percent_Surv</t>
   </si>
   <si>
-    <t>Control</t>
-  </si>
-  <si>
     <t>Acidic</t>
   </si>
   <si>
     <t>Prop_Surv</t>
+  </si>
+  <si>
+    <t>Ambient</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -432,7 +432,7 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -447,7 +447,7 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -462,7 +462,7 @@
         <v>39.5</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>96.875</v>
@@ -477,7 +477,7 @@
         <v>39.5</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>90.625</v>
@@ -492,7 +492,7 @@
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>87.5</v>
@@ -507,7 +507,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>81.25</v>
@@ -522,7 +522,7 @@
         <v>40.5</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>40.625</v>
@@ -537,7 +537,7 @@
         <v>40.5</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>31.25</v>
@@ -552,7 +552,7 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>21.875</v>
@@ -567,7 +567,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>12.5</v>
@@ -582,7 +582,7 @@
         <v>41.5</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>3.125</v>
@@ -597,7 +597,7 @@
         <v>41.5</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>3.125</v>
@@ -612,7 +612,7 @@
         <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>42.5</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>42.5</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>0</v>
